--- a/Data/Excel/camino_totals_true.xlsx
+++ b/Data/Excel/camino_totals_true.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,3608 +434,4280 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Anho</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>200401</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="C2" t="n">
         <v>2004</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>643</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>200402</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="C3" t="n">
         <v>2004</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1401</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>200403</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="C4" t="n">
         <v>2004</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3105</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>200404</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="C5" t="n">
         <v>2004</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>15554</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>200405</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="C6" t="n">
         <v>2004</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>16860</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>200406</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="C7" t="n">
         <v>2004</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>19295</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>200407</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="C8" t="n">
         <v>2004</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>31891</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>200408</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="C9" t="n">
         <v>2004</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>45601</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>200409</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="C10" t="n">
         <v>2004</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>22752</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>200410</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="C11" t="n">
         <v>2004</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>14556</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>200411</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="C12" t="n">
         <v>2004</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>4410</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>200412</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="C13" t="n">
         <v>2004</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>3802</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>200501</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="C14" t="n">
         <v>2005</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>269</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>200502</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="C15" t="n">
         <v>2005</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>565</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>200503</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="C16" t="n">
         <v>2005</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>3121</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>200504</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="C17" t="n">
         <v>2005</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>3307</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>200505</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="C18" t="n">
         <v>2005</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="D18" t="n">
         <v>5</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>9310</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>200506</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="C19" t="n">
         <v>2005</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="D19" t="n">
         <v>6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>12619</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>200507</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="C20" t="n">
         <v>2005</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="D20" t="n">
         <v>7</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>18804</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>200508</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="C21" t="n">
         <v>2005</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="D21" t="n">
         <v>8</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>24831</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>200509</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="C22" t="n">
         <v>2005</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="D22" t="n">
         <v>9</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>12168</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>200510</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="C23" t="n">
         <v>2005</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="D23" t="n">
         <v>10</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>6873</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>200511</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="C24" t="n">
         <v>2005</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="D24" t="n">
         <v>11</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>1388</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>200512</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="C25" t="n">
         <v>2005</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="D25" t="n">
         <v>12</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>668</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>200601</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="C26" t="n">
         <v>2006</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="D26" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>324</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>200602</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="C27" t="n">
         <v>2006</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>351</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>200603</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="C28" t="n">
         <v>2006</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="D28" t="n">
         <v>3</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>1096</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>200604</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="C29" t="n">
         <v>2006</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="D29" t="n">
         <v>4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>7451</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>200605</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="C30" t="n">
         <v>2006</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="D30" t="n">
         <v>5</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>10147</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>200606</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="C31" t="n">
         <v>2006</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>13011</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>200607</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="C32" t="n">
         <v>2006</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="D32" t="n">
         <v>7</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>18720</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>200608</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="C33" t="n">
         <v>2006</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="D33" t="n">
         <v>8</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>26183</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>200609</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="C34" t="n">
         <v>2006</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="D34" t="n">
         <v>9</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>13470</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>200610</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="C35" t="n">
         <v>2006</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="D35" t="n">
         <v>10</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>7700</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>200611</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="C36" t="n">
         <v>2006</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="D36" t="n">
         <v>11</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>1755</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>200612</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="C37" t="n">
         <v>2006</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="D37" t="n">
         <v>12</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>848</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>200701</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="C38" t="n">
         <v>2007</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="D38" t="n">
         <v>1</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>200702</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="C39" t="n">
         <v>2007</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>665</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>200703</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="C40" t="n">
         <v>2007</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>1680</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>200704</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="C41" t="n">
         <v>2007</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="D41" t="n">
         <v>4</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>8115</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>200705</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="C42" t="n">
         <v>2007</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>12924</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>200706</t>
         </is>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="C43" t="n">
         <v>2007</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="D43" t="n">
         <v>6</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>15182</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>200707</t>
         </is>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="C44" t="n">
         <v>2007</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>20156</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>200708</t>
         </is>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="C45" t="n">
         <v>2007</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="D45" t="n">
         <v>8</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>27289</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>200709</t>
         </is>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="C46" t="n">
         <v>2007</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="D46" t="n">
         <v>9</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>15282</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>200710</t>
         </is>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="C47" t="n">
         <v>2007</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="D47" t="n">
         <v>10</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>9443</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>200711</t>
         </is>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="C48" t="n">
         <v>2007</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="D48" t="n">
         <v>11</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>2496</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>200712</t>
         </is>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="C49" t="n">
         <v>2007</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="D49" t="n">
         <v>12</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>795</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>200801</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="C50" t="n">
         <v>2008</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>306</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>200802</t>
         </is>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="C51" t="n">
         <v>2008</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="D51" t="n">
         <v>2</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>703</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>200803</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="C52" t="n">
         <v>2008</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="D52" t="n">
         <v>3</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>5327</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>200804</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="C53" t="n">
         <v>2008</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="D53" t="n">
         <v>4</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>5648</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>200805</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="C54" t="n">
         <v>2008</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="D54" t="n">
         <v>5</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>16001</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>200806</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="C55" t="n">
         <v>2008</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="D55" t="n">
         <v>6</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>15904</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>200807</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="C56" t="n">
         <v>2008</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="D56" t="n">
         <v>7</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>21066</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>200808</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="C57" t="n">
         <v>2008</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="D57" t="n">
         <v>8</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>29996</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>200809</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="C58" t="n">
         <v>2008</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="D58" t="n">
         <v>9</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>17378</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>200810</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="C59" t="n">
         <v>2008</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="D59" t="n">
         <v>10</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>9878</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>200811</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="C60" t="n">
         <v>2008</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="D60" t="n">
         <v>11</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>2309</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>200812</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="C61" t="n">
         <v>2008</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="D61" t="n">
         <v>12</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>1085</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>200901</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="C62" t="n">
         <v>2009</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="D62" t="n">
         <v>1</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>523</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>200902</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="C63" t="n">
         <v>2009</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>698</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>200903</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="C64" t="n">
         <v>2009</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>1850</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>200904</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="C65" t="n">
         <v>2009</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>10316</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>200905</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="C66" t="n">
         <v>2009</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>16498</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>200906</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="C67" t="n">
         <v>2009</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>19354</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>200907</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="C68" t="n">
         <v>2009</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>26752</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>200908</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="C69" t="n">
         <v>2009</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>35546</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>200909</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="C70" t="n">
         <v>2009</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>20623</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>200910</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="C71" t="n">
         <v>2009</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="D71" t="n">
         <v>10</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>11731</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>200911</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="C72" t="n">
         <v>2009</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="D72" t="n">
         <v>11</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>2353</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>200912</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="C73" t="n">
         <v>2009</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="D73" t="n">
         <v>12</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>1010</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>201001</t>
         </is>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="C74" t="n">
         <v>2010</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="D74" t="n">
         <v>1</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>1188</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>201002</t>
         </is>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="C75" t="n">
         <v>2010</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="D75" t="n">
         <v>2</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>201003</t>
         </is>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="C76" t="n">
         <v>2010</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="D76" t="n">
         <v>3</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>5883</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>201004</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="C77" t="n">
         <v>2010</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="D77" t="n">
         <v>4</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>19587</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>201005</t>
         </is>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="C78" t="n">
         <v>2010</v>
       </c>
-      <c r="C78" s="1" t="n">
+      <c r="D78" t="n">
         <v>5</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>28846</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>201006</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="C79" t="n">
         <v>2010</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="D79" t="n">
         <v>6</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>33756</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>201007</t>
         </is>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="C80" t="n">
         <v>2010</v>
       </c>
-      <c r="C80" s="1" t="n">
+      <c r="D80" t="n">
         <v>7</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>42466</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>201008</t>
         </is>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="C81" t="n">
         <v>2010</v>
       </c>
-      <c r="C81" s="1" t="n">
+      <c r="D81" t="n">
         <v>8</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>61534</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>201009</t>
         </is>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="C82" t="n">
         <v>2010</v>
       </c>
-      <c r="C82" s="1" t="n">
+      <c r="D82" t="n">
         <v>9</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>36848</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>201010</t>
         </is>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="C83" t="n">
         <v>2010</v>
       </c>
-      <c r="C83" s="1" t="n">
+      <c r="D83" t="n">
         <v>10</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>26598</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>201011</t>
         </is>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="C84" t="n">
         <v>2010</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="D84" t="n">
         <v>11</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>8075</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>201012</t>
         </is>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="C85" t="n">
         <v>2010</v>
       </c>
-      <c r="C85" s="1" t="n">
+      <c r="D85" t="n">
         <v>12</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>5967</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>201101</t>
         </is>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="C86" t="n">
         <v>2011</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="D86" t="n">
         <v>1</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>644</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>201102</t>
         </is>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="C87" t="n">
         <v>2011</v>
       </c>
-      <c r="C87" s="1" t="n">
+      <c r="D87" t="n">
         <v>2</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>820</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>201103</t>
         </is>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="C88" t="n">
         <v>2011</v>
       </c>
-      <c r="C88" s="1" t="n">
+      <c r="D88" t="n">
         <v>3</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>3023</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>201104</t>
         </is>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="C89" t="n">
         <v>2011</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="D89" t="n">
         <v>4</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>14154</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>201105</t>
         </is>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="C90" t="n">
         <v>2011</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="D90" t="n">
         <v>5</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>19805</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>201106</t>
         </is>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="C91" t="n">
         <v>2011</v>
       </c>
-      <c r="C91" s="1" t="n">
+      <c r="D91" t="n">
         <v>6</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>25239</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>201107</t>
         </is>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="C92" t="n">
         <v>2011</v>
       </c>
-      <c r="C92" s="1" t="n">
+      <c r="D92" t="n">
         <v>7</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>30842</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>201108</t>
         </is>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="C93" t="n">
         <v>2011</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="D93" t="n">
         <v>8</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>41489</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>201109</t>
         </is>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="C94" t="n">
         <v>2011</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="D94" t="n">
         <v>9</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>26023</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>201110</t>
         </is>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="C95" t="n">
         <v>2011</v>
       </c>
-      <c r="C95" s="1" t="n">
+      <c r="D95" t="n">
         <v>10</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>16243</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>201111</t>
         </is>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="C96" t="n">
         <v>2011</v>
       </c>
-      <c r="C96" s="1" t="n">
+      <c r="D96" t="n">
         <v>11</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>3591</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>201112</t>
         </is>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="C97" t="n">
         <v>2011</v>
       </c>
-      <c r="C97" s="1" t="n">
+      <c r="D97" t="n">
         <v>12</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>1498</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>201201</t>
         </is>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="C98" t="n">
         <v>2012</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="D98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>872</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>201202</t>
         </is>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="C99" t="n">
         <v>2012</v>
       </c>
-      <c r="C99" s="1" t="n">
+      <c r="D99" t="n">
         <v>2</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>1305</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>201203</t>
         </is>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="C100" t="n">
         <v>2012</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="D100" t="n">
         <v>3</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>3260</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>201204</t>
         </is>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="C101" t="n">
         <v>2012</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="D101" t="n">
         <v>4</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>14749</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>201205</t>
         </is>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="C102" t="n">
         <v>2012</v>
       </c>
-      <c r="C102" s="1" t="n">
+      <c r="D102" t="n">
         <v>5</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>21776</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>201206</t>
         </is>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="C103" t="n">
         <v>2012</v>
       </c>
-      <c r="C103" s="1" t="n">
+      <c r="D103" t="n">
         <v>6</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>25517</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>201207</t>
         </is>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="C104" t="n">
         <v>2012</v>
       </c>
-      <c r="C104" s="1" t="n">
+      <c r="D104" t="n">
         <v>7</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>32818</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>201208</t>
         </is>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="C105" t="n">
         <v>2012</v>
       </c>
-      <c r="C105" s="1" t="n">
+      <c r="D105" t="n">
         <v>8</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>41096</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>201209</t>
         </is>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="C106" t="n">
         <v>2012</v>
       </c>
-      <c r="C106" s="1" t="n">
+      <c r="D106" t="n">
         <v>9</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>27321</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>201210</t>
         </is>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="C107" t="n">
         <v>2012</v>
       </c>
-      <c r="C107" s="1" t="n">
+      <c r="D107" t="n">
         <v>10</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>18091</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>201211</t>
         </is>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="C108" t="n">
         <v>2012</v>
       </c>
-      <c r="C108" s="1" t="n">
+      <c r="D108" t="n">
         <v>11</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>4170</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>201212</t>
         </is>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="C109" t="n">
         <v>2012</v>
       </c>
-      <c r="C109" s="1" t="n">
+      <c r="D109" t="n">
         <v>12</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>1483</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>201301</t>
         </is>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="C110" t="n">
         <v>2013</v>
       </c>
-      <c r="C110" s="1" t="n">
+      <c r="D110" t="n">
         <v>1</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>806</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>201302</t>
         </is>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="C111" t="n">
         <v>2013</v>
       </c>
-      <c r="C111" s="1" t="n">
+      <c r="D111" t="n">
         <v>2</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>1382</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>201303</t>
         </is>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="C112" t="n">
         <v>2013</v>
       </c>
-      <c r="C112" s="1" t="n">
+      <c r="D112" t="n">
         <v>3</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>7228</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>201304</t>
         </is>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="C113" t="n">
         <v>2013</v>
       </c>
-      <c r="C113" s="1" t="n">
+      <c r="D113" t="n">
         <v>4</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>11532</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>201305</t>
         </is>
       </c>
-      <c r="B114" s="1" t="n">
+      <c r="C114" t="n">
         <v>2013</v>
       </c>
-      <c r="C114" s="1" t="n">
+      <c r="D114" t="n">
         <v>5</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>25205</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>201306</t>
         </is>
       </c>
-      <c r="B115" s="1" t="n">
+      <c r="C115" t="n">
         <v>2013</v>
       </c>
-      <c r="C115" s="1" t="n">
+      <c r="D115" t="n">
         <v>6</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>29374</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>201307</t>
         </is>
       </c>
-      <c r="B116" s="1" t="n">
+      <c r="C116" t="n">
         <v>2013</v>
       </c>
-      <c r="C116" s="1" t="n">
+      <c r="D116" t="n">
         <v>7</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>36559</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>201308</t>
         </is>
       </c>
-      <c r="B117" s="1" t="n">
+      <c r="C117" t="n">
         <v>2013</v>
       </c>
-      <c r="C117" s="1" t="n">
+      <c r="D117" t="n">
         <v>8</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>46726</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>201309</t>
         </is>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="C118" t="n">
         <v>2013</v>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="D118" t="n">
         <v>9</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>30894</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>201310</t>
         </is>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="C119" t="n">
         <v>2013</v>
       </c>
-      <c r="C119" s="1" t="n">
+      <c r="D119" t="n">
         <v>10</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>19607</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>201311</t>
         </is>
       </c>
-      <c r="B120" s="1" t="n">
+      <c r="C120" t="n">
         <v>2013</v>
       </c>
-      <c r="C120" s="1" t="n">
+      <c r="D120" t="n">
         <v>11</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>4907</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>201312</t>
         </is>
       </c>
-      <c r="B121" s="1" t="n">
+      <c r="C121" t="n">
         <v>2013</v>
       </c>
-      <c r="C121" s="1" t="n">
+      <c r="D121" t="n">
         <v>12</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>1659</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>201401</t>
         </is>
       </c>
-      <c r="B122" s="1" t="n">
+      <c r="C122" t="n">
         <v>2014</v>
       </c>
-      <c r="C122" s="1" t="n">
+      <c r="D122" t="n">
         <v>1</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>906</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>201402</t>
         </is>
       </c>
-      <c r="B123" s="1" t="n">
+      <c r="C123" t="n">
         <v>2014</v>
       </c>
-      <c r="C123" s="1" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>970</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>201403</t>
         </is>
       </c>
-      <c r="B124" s="1" t="n">
+      <c r="C124" t="n">
         <v>2014</v>
       </c>
-      <c r="C124" s="1" t="n">
+      <c r="D124" t="n">
         <v>3</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>3150</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>201404</t>
         </is>
       </c>
-      <c r="B125" s="1" t="n">
+      <c r="C125" t="n">
         <v>2014</v>
       </c>
-      <c r="C125" s="1" t="n">
+      <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>17347</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>201405</t>
         </is>
       </c>
-      <c r="B126" s="1" t="n">
+      <c r="C126" t="n">
         <v>2014</v>
       </c>
-      <c r="C126" s="1" t="n">
+      <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>27354</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>201406</t>
         </is>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="C127" t="n">
         <v>2014</v>
       </c>
-      <c r="C127" s="1" t="n">
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>33021</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>201407</t>
         </is>
       </c>
-      <c r="B128" s="1" t="n">
+      <c r="C128" t="n">
         <v>2014</v>
       </c>
-      <c r="C128" s="1" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>39581</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>201408</t>
         </is>
       </c>
-      <c r="B129" s="1" t="n">
+      <c r="C129" t="n">
         <v>2014</v>
       </c>
-      <c r="C129" s="1" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>51218</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>201409</t>
         </is>
       </c>
-      <c r="B130" s="1" t="n">
+      <c r="C130" t="n">
         <v>2014</v>
       </c>
-      <c r="C130" s="1" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>34457</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>201410</t>
         </is>
       </c>
-      <c r="B131" s="1" t="n">
+      <c r="C131" t="n">
         <v>2014</v>
       </c>
-      <c r="C131" s="1" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>23205</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>201411</t>
         </is>
       </c>
-      <c r="B132" s="1" t="n">
+      <c r="C132" t="n">
         <v>2014</v>
       </c>
-      <c r="C132" s="1" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>4803</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>201412</t>
         </is>
       </c>
-      <c r="B133" s="1" t="n">
+      <c r="C133" t="n">
         <v>2014</v>
       </c>
-      <c r="C133" s="1" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>1870</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>201501</t>
         </is>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="C134" t="n">
         <v>2015</v>
       </c>
-      <c r="C134" s="1" t="n">
+      <c r="D134" t="n">
         <v>1</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>1217</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>201502</t>
         </is>
       </c>
-      <c r="B135" s="1" t="n">
+      <c r="C135" t="n">
         <v>2015</v>
       </c>
-      <c r="C135" s="1" t="n">
+      <c r="D135" t="n">
         <v>2</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>1544</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>201503</t>
         </is>
       </c>
-      <c r="B136" s="1" t="n">
+      <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="C136" s="1" t="n">
+      <c r="D136" t="n">
         <v>3</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>5080</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>201504</t>
         </is>
       </c>
-      <c r="B137" s="1" t="n">
+      <c r="C137" t="n">
         <v>2015</v>
       </c>
-      <c r="C137" s="1" t="n">
+      <c r="D137" t="n">
         <v>4</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>17721</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>201505</t>
         </is>
       </c>
-      <c r="B138" s="1" t="n">
+      <c r="C138" t="n">
         <v>2015</v>
       </c>
-      <c r="C138" s="1" t="n">
+      <c r="D138" t="n">
         <v>5</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>31076</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>201506</t>
         </is>
       </c>
-      <c r="B139" s="1" t="n">
+      <c r="C139" t="n">
         <v>2015</v>
       </c>
-      <c r="C139" s="1" t="n">
+      <c r="D139" t="n">
         <v>6</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>35923</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>201507</t>
         </is>
       </c>
-      <c r="B140" s="1" t="n">
+      <c r="C140" t="n">
         <v>2015</v>
       </c>
-      <c r="C140" s="1" t="n">
+      <c r="D140" t="n">
         <v>7</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>44794</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>201508</t>
         </is>
       </c>
-      <c r="B141" s="1" t="n">
+      <c r="C141" t="n">
         <v>2015</v>
       </c>
-      <c r="C141" s="1" t="n">
+      <c r="D141" t="n">
         <v>8</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>54794</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>201509</t>
         </is>
       </c>
-      <c r="B142" s="1" t="n">
+      <c r="C142" t="n">
         <v>2015</v>
       </c>
-      <c r="C142" s="1" t="n">
+      <c r="D142" t="n">
         <v>9</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>37429</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>201510</t>
         </is>
       </c>
-      <c r="B143" s="1" t="n">
+      <c r="C143" t="n">
         <v>2015</v>
       </c>
-      <c r="C143" s="1" t="n">
+      <c r="D143" t="n">
         <v>10</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>25576</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>201511</t>
         </is>
       </c>
-      <c r="B144" s="1" t="n">
+      <c r="C144" t="n">
         <v>2015</v>
       </c>
-      <c r="C144" s="1" t="n">
+      <c r="D144" t="n">
         <v>11</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>5228</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>201512</t>
         </is>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="C145" t="n">
         <v>2015</v>
       </c>
-      <c r="C145" s="1" t="n">
+      <c r="D145" t="n">
         <v>12</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>2062</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>201601</t>
         </is>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="C146" t="n">
         <v>2016</v>
       </c>
-      <c r="C146" s="1" t="n">
+      <c r="D146" t="n">
         <v>1</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>1304</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>201602</t>
         </is>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="C147" t="n">
         <v>2016</v>
       </c>
-      <c r="C147" s="1" t="n">
+      <c r="D147" t="n">
         <v>2</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>1733</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>201603</t>
         </is>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="C148" t="n">
         <v>2016</v>
       </c>
-      <c r="C148" s="1" t="n">
+      <c r="D148" t="n">
         <v>3</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>11067</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>201604</t>
         </is>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="C149" t="n">
         <v>2016</v>
       </c>
-      <c r="C149" s="1" t="n">
+      <c r="D149" t="n">
         <v>4</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>15100</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>201605</t>
         </is>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="C150" t="n">
         <v>2016</v>
       </c>
-      <c r="C150" s="1" t="n">
+      <c r="D150" t="n">
         <v>5</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>32776</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>201606</t>
         </is>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="C151" t="n">
         <v>2016</v>
       </c>
-      <c r="C151" s="1" t="n">
+      <c r="D151" t="n">
         <v>6</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>39070</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>201607</t>
         </is>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="C152" t="n">
         <v>2016</v>
       </c>
-      <c r="C152" s="1" t="n">
+      <c r="D152" t="n">
         <v>7</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>45471</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>201608</t>
         </is>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="C153" t="n">
         <v>2016</v>
       </c>
-      <c r="C153" s="1" t="n">
+      <c r="D153" t="n">
         <v>8</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>53704</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>201609</t>
         </is>
       </c>
-      <c r="B154" s="1" t="n">
+      <c r="C154" t="n">
         <v>2016</v>
       </c>
-      <c r="C154" s="1" t="n">
+      <c r="D154" t="n">
         <v>9</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>40149</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>201610</t>
         </is>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="C155" t="n">
         <v>2016</v>
       </c>
-      <c r="C155" s="1" t="n">
+      <c r="D155" t="n">
         <v>10</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>28222</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>201611</t>
         </is>
       </c>
-      <c r="B156" s="1" t="n">
+      <c r="C156" t="n">
         <v>2016</v>
       </c>
-      <c r="C156" s="1" t="n">
+      <c r="D156" t="n">
         <v>11</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>6394</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>201612</t>
         </is>
       </c>
-      <c r="B157" s="1" t="n">
+      <c r="C157" t="n">
         <v>2016</v>
       </c>
-      <c r="C157" s="1" t="n">
+      <c r="D157" t="n">
         <v>12</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>2864</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>201701</t>
         </is>
       </c>
-      <c r="B158" s="1" t="n">
+      <c r="C158" t="n">
         <v>2017</v>
       </c>
-      <c r="C158" s="1" t="n">
+      <c r="D158" t="n">
         <v>1</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>1354</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>201702</t>
         </is>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="C159" t="n">
         <v>2017</v>
       </c>
-      <c r="C159" s="1" t="n">
+      <c r="D159" t="n">
         <v>2</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>1696</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>201703</t>
         </is>
       </c>
-      <c r="B160" s="1" t="n">
+      <c r="C160" t="n">
         <v>2017</v>
       </c>
-      <c r="C160" s="1" t="n">
+      <c r="D160" t="n">
         <v>3</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>5176</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>201704</t>
         </is>
       </c>
-      <c r="B161" s="1" t="n">
+      <c r="C161" t="n">
         <v>2017</v>
       </c>
-      <c r="C161" s="1" t="n">
+      <c r="D161" t="n">
         <v>4</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>26925</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>201705</t>
         </is>
       </c>
-      <c r="B162" s="1" t="n">
+      <c r="C162" t="n">
         <v>2017</v>
       </c>
-      <c r="C162" s="1" t="n">
+      <c r="D162" t="n">
         <v>5</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>35347</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>201706</t>
         </is>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="C163" t="n">
         <v>2017</v>
       </c>
-      <c r="C163" s="1" t="n">
+      <c r="D163" t="n">
         <v>6</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>41619</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>201707</t>
         </is>
       </c>
-      <c r="B164" s="1" t="n">
+      <c r="C164" t="n">
         <v>2017</v>
       </c>
-      <c r="C164" s="1" t="n">
+      <c r="D164" t="n">
         <v>7</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>47470</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>201708</t>
         </is>
       </c>
-      <c r="B165" s="1" t="n">
+      <c r="C165" t="n">
         <v>2017</v>
       </c>
-      <c r="C165" s="1" t="n">
+      <c r="D165" t="n">
         <v>8</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>57680</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>201709</t>
         </is>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="C166" t="n">
         <v>2017</v>
       </c>
-      <c r="C166" s="1" t="n">
+      <c r="D166" t="n">
         <v>9</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>42189</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>201710</t>
         </is>
       </c>
-      <c r="B167" s="1" t="n">
+      <c r="C167" t="n">
         <v>2017</v>
       </c>
-      <c r="C167" s="1" t="n">
+      <c r="D167" t="n">
         <v>10</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>31341</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>201711</t>
         </is>
       </c>
-      <c r="B168" s="1" t="n">
+      <c r="C168" t="n">
         <v>2017</v>
       </c>
-      <c r="C168" s="1" t="n">
+      <c r="D168" t="n">
         <v>11</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>7346</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>201712</t>
         </is>
       </c>
-      <c r="B169" s="1" t="n">
+      <c r="C169" t="n">
         <v>2017</v>
       </c>
-      <c r="C169" s="1" t="n">
+      <c r="D169" t="n">
         <v>12</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>2893</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>201801</t>
         </is>
       </c>
-      <c r="B170" s="1" t="n">
+      <c r="C170" t="n">
         <v>2018</v>
       </c>
-      <c r="C170" s="1" t="n">
+      <c r="D170" t="n">
         <v>1</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>1627</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>201802</t>
         </is>
       </c>
-      <c r="B171" s="1" t="n">
+      <c r="C171" t="n">
         <v>2018</v>
       </c>
-      <c r="C171" s="1" t="n">
+      <c r="D171" t="n">
         <v>2</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>2181</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
         <is>
           <t>201803</t>
         </is>
       </c>
-      <c r="B172" s="1" t="n">
+      <c r="C172" t="n">
         <v>2018</v>
       </c>
-      <c r="C172" s="1" t="n">
+      <c r="D172" t="n">
         <v>3</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>11056</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>201804</t>
         </is>
       </c>
-      <c r="B173" s="1" t="n">
+      <c r="C173" t="n">
         <v>2018</v>
       </c>
-      <c r="C173" s="1" t="n">
+      <c r="D173" t="n">
         <v>4</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>22068</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>201805</t>
         </is>
       </c>
-      <c r="B174" s="1" t="n">
+      <c r="C174" t="n">
         <v>2018</v>
       </c>
-      <c r="C174" s="1" t="n">
+      <c r="D174" t="n">
         <v>5</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>40665</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>201806</t>
         </is>
       </c>
-      <c r="B175" s="1" t="n">
+      <c r="C175" t="n">
         <v>2018</v>
       </c>
-      <c r="C175" s="1" t="n">
+      <c r="D175" t="n">
         <v>6</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>45685</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>201807</t>
         </is>
       </c>
-      <c r="B176" s="1" t="n">
+      <c r="C176" t="n">
         <v>2018</v>
       </c>
-      <c r="C176" s="1" t="n">
+      <c r="D176" t="n">
         <v>7</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>50867</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
         <is>
           <t>201808</t>
         </is>
       </c>
-      <c r="B177" s="1" t="n">
+      <c r="C177" t="n">
         <v>2018</v>
       </c>
-      <c r="C177" s="1" t="n">
+      <c r="D177" t="n">
         <v>8</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>60415</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
         <is>
           <t>201809</t>
         </is>
       </c>
-      <c r="B178" s="1" t="n">
+      <c r="C178" t="n">
         <v>2018</v>
       </c>
-      <c r="C178" s="1" t="n">
+      <c r="D178" t="n">
         <v>9</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>47006</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>201810</t>
         </is>
       </c>
-      <c r="B179" s="1" t="n">
+      <c r="C179" t="n">
         <v>2018</v>
       </c>
-      <c r="C179" s="1" t="n">
+      <c r="D179" t="n">
         <v>10</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>35602</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="inlineStr">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>201811</t>
         </is>
       </c>
-      <c r="B180" s="1" t="n">
+      <c r="C180" t="n">
         <v>2018</v>
       </c>
-      <c r="C180" s="1" t="n">
+      <c r="D180" t="n">
         <v>11</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>7651</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="inlineStr">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t>201812</t>
         </is>
       </c>
-      <c r="B181" s="1" t="n">
+      <c r="C181" t="n">
         <v>2018</v>
       </c>
-      <c r="C181" s="1" t="n">
+      <c r="D181" t="n">
         <v>12</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>2553</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="inlineStr">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
         <is>
           <t>201901</t>
         </is>
       </c>
-      <c r="B182" s="1" t="n">
+      <c r="C182" t="n">
         <v>2019</v>
       </c>
-      <c r="C182" s="1" t="n">
+      <c r="D182" t="n">
         <v>1</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>1651</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="inlineStr">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
         <is>
           <t>201902</t>
         </is>
       </c>
-      <c r="B183" s="1" t="n">
+      <c r="C183" t="n">
         <v>2019</v>
       </c>
-      <c r="C183" s="1" t="n">
+      <c r="D183" t="n">
         <v>2</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>2119</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="inlineStr">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
         <is>
           <t>201903</t>
         </is>
       </c>
-      <c r="B184" s="1" t="n">
+      <c r="C184" t="n">
         <v>2019</v>
       </c>
-      <c r="C184" s="1" t="n">
+      <c r="D184" t="n">
         <v>3</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>7474</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="inlineStr">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
         <is>
           <t>201904</t>
         </is>
       </c>
-      <c r="B185" s="1" t="n">
+      <c r="C185" t="n">
         <v>2019</v>
       </c>
-      <c r="C185" s="1" t="n">
+      <c r="D185" t="n">
         <v>4</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>31722</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="inlineStr">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
         <is>
           <t>201905</t>
         </is>
       </c>
-      <c r="B186" s="1" t="n">
+      <c r="C186" t="n">
         <v>2019</v>
       </c>
-      <c r="C186" s="1" t="n">
+      <c r="D186" t="n">
         <v>5</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>46673</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="inlineStr">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>201906</t>
         </is>
       </c>
-      <c r="B187" s="1" t="n">
+      <c r="C187" t="n">
         <v>2019</v>
       </c>
-      <c r="C187" s="1" t="n">
+      <c r="D187" t="n">
         <v>6</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>49058</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="inlineStr">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
         <is>
           <t>201907</t>
         </is>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="C188" t="n">
         <v>2019</v>
       </c>
-      <c r="C188" s="1" t="n">
+      <c r="D188" t="n">
         <v>7</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>53319</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="inlineStr">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
         <is>
           <t>201908</t>
         </is>
       </c>
-      <c r="B189" s="1" t="n">
+      <c r="C189" t="n">
         <v>2019</v>
       </c>
-      <c r="C189" s="1" t="n">
+      <c r="D189" t="n">
         <v>8</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>62814</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="inlineStr">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
         <is>
           <t>201909</t>
         </is>
       </c>
-      <c r="B190" s="1" t="n">
+      <c r="C190" t="n">
         <v>2019</v>
       </c>
-      <c r="C190" s="1" t="n">
+      <c r="D190" t="n">
         <v>9</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>45653</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="inlineStr">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
         <is>
           <t>201910</t>
         </is>
       </c>
-      <c r="B191" s="1" t="n">
+      <c r="C191" t="n">
         <v>2019</v>
       </c>
-      <c r="C191" s="1" t="n">
+      <c r="D191" t="n">
         <v>10</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>36118</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="inlineStr">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
         <is>
           <t>201911</t>
         </is>
       </c>
-      <c r="B192" s="1" t="n">
+      <c r="C192" t="n">
         <v>2019</v>
       </c>
-      <c r="C192" s="1" t="n">
+      <c r="D192" t="n">
         <v>11</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>8274</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="inlineStr">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
         <is>
           <t>201912</t>
         </is>
       </c>
-      <c r="B193" s="1" t="n">
+      <c r="C193" t="n">
         <v>2019</v>
       </c>
-      <c r="C193" s="1" t="n">
+      <c r="D193" t="n">
         <v>12</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>2710</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="inlineStr">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
         <is>
           <t>202001</t>
         </is>
       </c>
-      <c r="B194" s="1" t="n">
+      <c r="C194" t="n">
         <v>2020</v>
       </c>
-      <c r="C194" s="1" t="n">
+      <c r="D194" t="n">
         <v>1</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="inlineStr">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
         <is>
           <t>202002</t>
         </is>
       </c>
-      <c r="B195" s="1" t="n">
+      <c r="C195" t="n">
         <v>2020</v>
       </c>
-      <c r="C195" s="1" t="n">
+      <c r="D195" t="n">
         <v>2</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>3076</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="inlineStr">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
         <is>
           <t>202003</t>
         </is>
       </c>
-      <c r="B196" s="1" t="n">
+      <c r="C196" t="n">
         <v>2020</v>
       </c>
-      <c r="C196" s="1" t="n">
+      <c r="D196" t="n">
         <v>3</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>1948</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="inlineStr">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
         <is>
           <t>202006</t>
         </is>
       </c>
-      <c r="B197" s="1" t="n">
+      <c r="C197" t="n">
         <v>2020</v>
       </c>
-      <c r="C197" s="1" t="n">
+      <c r="D197" t="n">
         <v>6</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="inlineStr">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
         <is>
           <t>202007</t>
         </is>
       </c>
-      <c r="B198" s="1" t="n">
+      <c r="C198" t="n">
         <v>2020</v>
       </c>
-      <c r="C198" s="1" t="n">
+      <c r="D198" t="n">
         <v>7</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>9752</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="inlineStr">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
         <is>
           <t>202008</t>
         </is>
       </c>
-      <c r="B199" s="1" t="n">
+      <c r="C199" t="n">
         <v>2020</v>
       </c>
-      <c r="C199" s="1" t="n">
+      <c r="D199" t="n">
         <v>8</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>19812</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="inlineStr">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
         <is>
           <t>202009</t>
         </is>
       </c>
-      <c r="B200" s="1" t="n">
+      <c r="C200" t="n">
         <v>2020</v>
       </c>
-      <c r="C200" s="1" t="n">
+      <c r="D200" t="n">
         <v>9</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>10441</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="inlineStr">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
         <is>
           <t>202010</t>
         </is>
       </c>
-      <c r="B201" s="1" t="n">
+      <c r="C201" t="n">
         <v>2020</v>
       </c>
-      <c r="C201" s="1" t="n">
+      <c r="D201" t="n">
         <v>10</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>6418</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="inlineStr">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
         <is>
           <t>202011</t>
         </is>
       </c>
-      <c r="B202" s="1" t="n">
+      <c r="C202" t="n">
         <v>2020</v>
       </c>
-      <c r="C202" s="1" t="n">
+      <c r="D202" t="n">
         <v>11</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>585</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="inlineStr">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
         <is>
           <t>202012</t>
         </is>
       </c>
-      <c r="B203" s="1" t="n">
+      <c r="C203" t="n">
         <v>2020</v>
       </c>
-      <c r="C203" s="1" t="n">
+      <c r="D203" t="n">
         <v>12</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="inlineStr">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
         <is>
           <t>202101</t>
         </is>
       </c>
-      <c r="B204" s="1" t="n">
+      <c r="C204" t="n">
         <v>2021</v>
       </c>
-      <c r="C204" s="1" t="n">
+      <c r="D204" t="n">
         <v>1</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="inlineStr">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
         <is>
           <t>202102</t>
         </is>
       </c>
-      <c r="B205" s="1" t="n">
+      <c r="C205" t="n">
         <v>2021</v>
       </c>
-      <c r="C205" s="1" t="n">
+      <c r="D205" t="n">
         <v>2</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="inlineStr">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
         <is>
           <t>202103</t>
         </is>
       </c>
-      <c r="B206" s="1" t="n">
+      <c r="C206" t="n">
         <v>2021</v>
       </c>
-      <c r="C206" s="1" t="n">
+      <c r="D206" t="n">
         <v>3</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>194</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="inlineStr">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>202104</t>
         </is>
       </c>
-      <c r="B207" s="1" t="n">
+      <c r="C207" t="n">
         <v>2021</v>
       </c>
-      <c r="C207" s="1" t="n">
+      <c r="D207" t="n">
         <v>4</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>1024</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="inlineStr">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
         <is>
           <t>202105</t>
         </is>
       </c>
-      <c r="B208" s="1" t="n">
+      <c r="C208" t="n">
         <v>2021</v>
       </c>
-      <c r="C208" s="1" t="n">
+      <c r="D208" t="n">
         <v>5</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>4295</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="inlineStr">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
         <is>
           <t>202106</t>
         </is>
       </c>
-      <c r="B209" s="1" t="n">
+      <c r="C209" t="n">
         <v>2021</v>
       </c>
-      <c r="C209" s="1" t="n">
+      <c r="D209" t="n">
         <v>6</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>14824</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="inlineStr">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
         <is>
           <t>202107</t>
         </is>
       </c>
-      <c r="B210" s="1" t="n">
+      <c r="C210" t="n">
         <v>2021</v>
       </c>
-      <c r="C210" s="1" t="n">
+      <c r="D210" t="n">
         <v>7</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>33963</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="inlineStr">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
         <is>
           <t>202108</t>
         </is>
       </c>
-      <c r="B211" s="1" t="n">
+      <c r="C211" t="n">
         <v>2021</v>
       </c>
-      <c r="C211" s="1" t="n">
+      <c r="D211" t="n">
         <v>8</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>43575</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="inlineStr">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
         <is>
           <t>202109</t>
         </is>
       </c>
-      <c r="B212" s="1" t="n">
+      <c r="C212" t="n">
         <v>2021</v>
       </c>
-      <c r="C212" s="1" t="n">
+      <c r="D212" t="n">
         <v>9</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>37463</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="inlineStr">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
         <is>
           <t>202110</t>
         </is>
       </c>
-      <c r="B213" s="1" t="n">
+      <c r="C213" t="n">
         <v>2021</v>
       </c>
-      <c r="C213" s="1" t="n">
+      <c r="D213" t="n">
         <v>10</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>31170</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="inlineStr">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
         <is>
           <t>202111</t>
         </is>
       </c>
-      <c r="B214" s="1" t="n">
+      <c r="C214" t="n">
         <v>2021</v>
       </c>
-      <c r="C214" s="1" t="n">
+      <c r="D214" t="n">
         <v>11</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>9094</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="inlineStr">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
         <is>
           <t>202112</t>
         </is>
       </c>
-      <c r="B215" s="1" t="n">
+      <c r="C215" t="n">
         <v>2021</v>
       </c>
-      <c r="C215" s="1" t="n">
+      <c r="D215" t="n">
         <v>12</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>1193</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="inlineStr">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
         <is>
           <t>202201</t>
         </is>
       </c>
-      <c r="B216" s="1" t="n">
+      <c r="C216" t="n">
         <v>2022</v>
       </c>
-      <c r="C216" s="1" t="n">
+      <c r="D216" t="n">
         <v>1</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>1617</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="inlineStr">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
         <is>
           <t>202202</t>
         </is>
       </c>
-      <c r="B217" s="1" t="n">
+      <c r="C217" t="n">
         <v>2022</v>
       </c>
-      <c r="C217" s="1" t="n">
+      <c r="D217" t="n">
         <v>2</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>2034</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="inlineStr">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
         <is>
           <t>202203</t>
         </is>
       </c>
-      <c r="B218" s="1" t="n">
+      <c r="C218" t="n">
         <v>2022</v>
       </c>
-      <c r="C218" s="1" t="n">
+      <c r="D218" t="n">
         <v>3</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>7389</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="inlineStr">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
         <is>
           <t>202204</t>
         </is>
       </c>
-      <c r="B219" s="1" t="n">
+      <c r="C219" t="n">
         <v>2022</v>
       </c>
-      <c r="C219" s="1" t="n">
+      <c r="D219" t="n">
         <v>4</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>34283</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="inlineStr">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
         <is>
           <t>202205</t>
         </is>
       </c>
-      <c r="B220" s="1" t="n">
+      <c r="C220" t="n">
         <v>2022</v>
       </c>
-      <c r="C220" s="1" t="n">
+      <c r="D220" t="n">
         <v>5</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>48254</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="inlineStr">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
         <is>
           <t>202206</t>
         </is>
       </c>
-      <c r="B221" s="1" t="n">
+      <c r="C221" t="n">
         <v>2022</v>
       </c>
-      <c r="C221" s="1" t="n">
+      <c r="D221" t="n">
         <v>6</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>58012</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="inlineStr">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
         <is>
           <t>202207</t>
         </is>
       </c>
-      <c r="B222" s="1" t="n">
+      <c r="C222" t="n">
         <v>2022</v>
       </c>
-      <c r="C222" s="1" t="n">
+      <c r="D222" t="n">
         <v>7</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>67374</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="inlineStr">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
         <is>
           <t>202208</t>
         </is>
       </c>
-      <c r="B223" s="1" t="n">
+      <c r="C223" t="n">
         <v>2022</v>
       </c>
-      <c r="C223" s="1" t="n">
+      <c r="D223" t="n">
         <v>8</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>85842</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="inlineStr">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
         <is>
           <t>202209</t>
         </is>
       </c>
-      <c r="B224" s="1" t="n">
+      <c r="C224" t="n">
         <v>2022</v>
       </c>
-      <c r="C224" s="1" t="n">
+      <c r="D224" t="n">
         <v>9</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>66196</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="inlineStr">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
         <is>
           <t>202210</t>
         </is>
       </c>
-      <c r="B225" s="1" t="n">
+      <c r="C225" t="n">
         <v>2022</v>
       </c>
-      <c r="C225" s="1" t="n">
+      <c r="D225" t="n">
         <v>10</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>51356</v>
       </c>
     </row>
